--- a/drop.xlsx
+++ b/drop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data =</t>
+    <t>exports.data = </t>
   </si>
   <si>
     <t>#path</t>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>[3].prize[0].count:number</t>
+  </si>
+  <si>
+    <t>[3].prize[1].weight:number</t>
+  </si>
+  <si>
+    <t>[3].prize[1].type:number</t>
+  </si>
+  <si>
+    <t>[3].prize[1].value:number</t>
+  </si>
+  <si>
+    <t>[3].prize[1].count:number</t>
+  </si>
+  <si>
+    <t>[3].prize[2].weight:number</t>
+  </si>
+  <si>
+    <t>[3].prize[2].type:number</t>
+  </si>
+  <si>
+    <t>[3].prize[2].value:number</t>
+  </si>
+  <si>
+    <t>[3].prize[2].count:number</t>
   </si>
   <si>
     <t>[4].rate:number</t>
@@ -134,26 +158,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,20 +184,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -245,10 +250,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -280,10 +285,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -486,26 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI67" sqref="AI67:AI73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="29" max="29" width="8" customWidth="1"/>
-    <col min="30" max="30" width="12.5" customWidth="1"/>
-    <col min="35" max="35" width="7.5" customWidth="1"/>
-    <col min="36" max="36" width="8.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,8 +614,32 @@
       <c r="AJ2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -660,8 +676,16 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -698,8 +722,16 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -736,8 +768,16 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -774,8 +814,16 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -812,8 +860,16 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>1</v>
@@ -858,8 +914,16 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>1</v>
@@ -904,8 +968,16 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -950,8 +1022,16 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>1</v>
@@ -962,7 +1042,7 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1">
@@ -974,7 +1054,7 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>150</v>
       </c>
       <c r="J11" s="1">
@@ -986,59 +1066,69 @@
       <c r="L11" s="1">
         <v>4</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>20</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="N11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>853</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>853</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
       <c r="X11" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ11" s="1">
         <v>5</v>
       </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -1048,7 +1138,7 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1">
@@ -1060,7 +1150,7 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>200</v>
       </c>
       <c r="J12" s="1">
@@ -1072,58 +1162,69 @@
       <c r="L12" s="1">
         <v>4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>20</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="N12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>853</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>853</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
       <c r="X12" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ12" s="1">
         <v>5</v>
       </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -1133,7 +1234,7 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>100</v>
       </c>
       <c r="F13" s="1">
@@ -1145,7 +1246,7 @@
       <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>200</v>
       </c>
       <c r="J13" s="1">
@@ -1157,58 +1258,69 @@
       <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>20</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="N13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>853</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>853</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
       <c r="X13" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ13" s="1">
         <v>5</v>
       </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -1218,7 +1330,7 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>100</v>
       </c>
       <c r="F14" s="1">
@@ -1230,7 +1342,7 @@
       <c r="H14" s="1">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>250</v>
       </c>
       <c r="J14" s="1">
@@ -1242,58 +1354,69 @@
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>20</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="N14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>10</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>853</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>853</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
       <c r="X14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ14" s="1">
         <v>5</v>
       </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1303,7 +1426,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>100</v>
       </c>
       <c r="F15" s="1">
@@ -1315,7 +1438,7 @@
       <c r="H15" s="1">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>250</v>
       </c>
       <c r="J15" s="1">
@@ -1327,58 +1450,69 @@
       <c r="L15" s="1">
         <v>4</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <v>20</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="N15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>853</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>853</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
       <c r="X15" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ15" s="1">
         <v>5</v>
       </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1</v>
       </c>
@@ -1388,7 +1522,7 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>100</v>
       </c>
       <c r="F16" s="1">
@@ -1400,7 +1534,7 @@
       <c r="H16" s="1">
         <v>3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>250</v>
       </c>
       <c r="J16" s="1">
@@ -1412,58 +1546,69 @@
       <c r="L16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="1">
         <v>20</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="N16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>10</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>853</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>853</v>
+      </c>
+      <c r="V16" s="1">
+        <v>3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
       <c r="X16" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ16" s="1">
         <v>5</v>
       </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -1473,7 +1618,7 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>100</v>
       </c>
       <c r="F17" s="1">
@@ -1485,7 +1630,7 @@
       <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>300</v>
       </c>
       <c r="J17" s="1">
@@ -1497,58 +1642,69 @@
       <c r="L17" s="1">
         <v>4</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="1">
         <v>20</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="N17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>853</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>853</v>
+      </c>
+      <c r="V17" s="1">
+        <v>3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
       <c r="X17" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>10</v>
+        <v>853</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>853</v>
-      </c>
-      <c r="AJ17" s="1">
         <v>5</v>
       </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1558,7 +1714,7 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>150</v>
       </c>
       <c r="F18" s="1">
@@ -1570,7 +1726,7 @@
       <c r="H18" s="1">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>300</v>
       </c>
       <c r="J18" s="1">
@@ -1582,7 +1738,7 @@
       <c r="L18" s="1">
         <v>4</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="1">
         <v>30</v>
       </c>
       <c r="N18" s="1">
@@ -1600,50 +1756,34 @@
       <c r="R18" s="1">
         <v>1</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1">
         <v>0.2</v>
       </c>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="AB18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
         <v>807</v>
       </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AG18" s="1">
         <v>10</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -1652,10 +1792,35 @@
         <v>853</v>
       </c>
       <c r="AJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -1665,7 +1830,7 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>150</v>
       </c>
       <c r="F19" s="1">
@@ -1677,7 +1842,7 @@
       <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>350</v>
       </c>
       <c r="J19" s="1">
@@ -1689,7 +1854,7 @@
       <c r="L19" s="1">
         <v>4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1">
         <v>30</v>
       </c>
       <c r="N19" s="1">
@@ -1707,50 +1872,34 @@
       <c r="R19" s="1">
         <v>1</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1">
         <v>0.2</v>
       </c>
-      <c r="T19" s="1">
-        <v>2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="AB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
         <v>807</v>
       </c>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="AE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AG19" s="1">
         <v>10</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>1</v>
       </c>
       <c r="AH19" s="1">
         <v>0</v>
@@ -1759,10 +1908,35 @@
         <v>853</v>
       </c>
       <c r="AJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1772,7 +1946,7 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>150</v>
       </c>
       <c r="F20" s="1">
@@ -1784,7 +1958,7 @@
       <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>350</v>
       </c>
       <c r="J20" s="1">
@@ -1796,7 +1970,7 @@
       <c r="L20" s="1">
         <v>4</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="1">
         <v>30</v>
       </c>
       <c r="N20" s="1">
@@ -1814,50 +1988,34 @@
       <c r="R20" s="1">
         <v>1</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1">
         <v>0.2</v>
       </c>
-      <c r="T20" s="1">
-        <v>2</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="AB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
         <v>807</v>
       </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
+      <c r="AE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AG20" s="1">
         <v>10</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>1</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -1866,10 +2024,35 @@
         <v>853</v>
       </c>
       <c r="AJ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1879,7 +2062,7 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>150</v>
       </c>
       <c r="F21" s="1">
@@ -1891,7 +2074,7 @@
       <c r="H21" s="1">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>400</v>
       </c>
       <c r="J21" s="1">
@@ -1903,7 +2086,7 @@
       <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <v>30</v>
       </c>
       <c r="N21" s="1">
@@ -1921,50 +2104,34 @@
       <c r="R21" s="1">
         <v>1</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1">
         <v>0.2</v>
       </c>
-      <c r="T21" s="1">
-        <v>2</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="AB21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
         <v>808</v>
       </c>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1">
+      <c r="AE21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AG21" s="1">
         <v>10</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>1</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -1973,10 +2140,35 @@
         <v>853</v>
       </c>
       <c r="AJ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -1986,7 +2178,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>150</v>
       </c>
       <c r="F22" s="1">
@@ -1998,7 +2190,7 @@
       <c r="H22" s="1">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>400</v>
       </c>
       <c r="J22" s="1">
@@ -2010,7 +2202,7 @@
       <c r="L22" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <v>30</v>
       </c>
       <c r="N22" s="1">
@@ -2028,50 +2220,34 @@
       <c r="R22" s="1">
         <v>1</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1">
         <v>0.2</v>
       </c>
-      <c r="T22" s="1">
-        <v>2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="AB22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
         <v>808</v>
       </c>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1">
+      <c r="AE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AG22" s="1">
         <v>10</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>1</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
@@ -2080,10 +2256,35 @@
         <v>853</v>
       </c>
       <c r="AJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR22" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -2093,7 +2294,7 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>150</v>
       </c>
       <c r="F23" s="1">
@@ -2105,7 +2306,7 @@
       <c r="H23" s="1">
         <v>3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>400</v>
       </c>
       <c r="J23" s="1">
@@ -2117,7 +2318,7 @@
       <c r="L23" s="1">
         <v>4</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <v>30</v>
       </c>
       <c r="N23" s="1">
@@ -2135,50 +2336,34 @@
       <c r="R23" s="1">
         <v>1</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1">
         <v>0.2</v>
       </c>
-      <c r="T23" s="1">
-        <v>2</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23">
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
         <v>809</v>
       </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AG23" s="1">
         <v>10</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>1</v>
       </c>
       <c r="AH23" s="1">
         <v>0</v>
@@ -2187,10 +2372,35 @@
         <v>853</v>
       </c>
       <c r="AJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1</v>
       </c>
@@ -2200,7 +2410,7 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>150</v>
       </c>
       <c r="F24" s="1">
@@ -2212,7 +2422,7 @@
       <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>450</v>
       </c>
       <c r="J24" s="1">
@@ -2224,7 +2434,7 @@
       <c r="L24" s="1">
         <v>4</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="1">
         <v>30</v>
       </c>
       <c r="N24" s="1">
@@ -2242,50 +2452,34 @@
       <c r="R24" s="1">
         <v>1</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1">
         <v>0.2</v>
       </c>
-      <c r="T24" s="1">
-        <v>2</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="AB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
         <v>809</v>
       </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AG24" s="1">
         <v>10</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>853</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>853</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>1</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
@@ -2294,10 +2488,35 @@
         <v>853</v>
       </c>
       <c r="AJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>853</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>853</v>
+      </c>
+      <c r="AR24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1</v>
       </c>
@@ -2307,7 +2526,7 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1">
@@ -2319,7 +2538,7 @@
       <c r="H25" s="1">
         <v>3</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>500</v>
       </c>
       <c r="J25" s="1">
@@ -2331,7 +2550,7 @@
       <c r="L25" s="1">
         <v>4</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="1">
         <v>50</v>
       </c>
       <c r="N25" s="1">
@@ -2349,50 +2568,34 @@
       <c r="R25" s="1">
         <v>1</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1">
         <v>0.2</v>
       </c>
-      <c r="T25" s="1">
-        <v>2</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="AB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
         <v>810</v>
       </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AG25" s="1">
         <v>10</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>1</v>
       </c>
       <c r="AH25" s="1">
         <v>0</v>
@@ -2401,10 +2604,35 @@
         <v>854</v>
       </c>
       <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -2414,7 +2642,7 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>200</v>
       </c>
       <c r="F26" s="1">
@@ -2426,7 +2654,7 @@
       <c r="H26" s="1">
         <v>3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>500</v>
       </c>
       <c r="J26" s="1">
@@ -2438,7 +2666,7 @@
       <c r="L26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <v>50</v>
       </c>
       <c r="N26" s="1">
@@ -2456,50 +2684,34 @@
       <c r="R26" s="1">
         <v>1</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1">
         <v>0.2</v>
       </c>
-      <c r="T26" s="1">
-        <v>2</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="AB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
         <v>810</v>
       </c>
-      <c r="W26" s="1">
-        <v>1</v>
-      </c>
-      <c r="X26" s="1">
+      <c r="AE26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AG26" s="1">
         <v>10</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>1</v>
       </c>
       <c r="AH26" s="1">
         <v>0</v>
@@ -2508,10 +2720,35 @@
         <v>854</v>
       </c>
       <c r="AJ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -2521,7 +2758,7 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>200</v>
       </c>
       <c r="F27" s="1">
@@ -2533,7 +2770,7 @@
       <c r="H27" s="1">
         <v>3</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>500</v>
       </c>
       <c r="J27" s="1">
@@ -2545,7 +2782,7 @@
       <c r="L27" s="1">
         <v>4</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="1">
         <v>50</v>
       </c>
       <c r="N27" s="1">
@@ -2563,50 +2800,34 @@
       <c r="R27" s="1">
         <v>1</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1">
         <v>0.2</v>
       </c>
-      <c r="T27" s="1">
-        <v>2</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27">
+      <c r="AB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
         <v>810</v>
       </c>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="AE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="AG27" s="1">
         <v>10</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>1</v>
       </c>
       <c r="AH27" s="1">
         <v>0</v>
@@ -2615,10 +2836,35 @@
         <v>854</v>
       </c>
       <c r="AJ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -2628,7 +2874,7 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>200</v>
       </c>
       <c r="F28" s="1">
@@ -2640,7 +2886,7 @@
       <c r="H28" s="1">
         <v>3</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>500</v>
       </c>
       <c r="J28" s="1">
@@ -2652,7 +2898,7 @@
       <c r="L28" s="1">
         <v>4</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="1">
         <v>50</v>
       </c>
       <c r="N28" s="1">
@@ -2670,50 +2916,34 @@
       <c r="R28" s="1">
         <v>1</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1">
         <v>0.2</v>
       </c>
-      <c r="T28" s="1">
-        <v>2</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="AB28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
         <v>811</v>
       </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AG28" s="1">
         <v>10</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>1</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -2722,10 +2952,35 @@
         <v>854</v>
       </c>
       <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -2735,7 +2990,7 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>200</v>
       </c>
       <c r="F29" s="1">
@@ -2747,7 +3002,7 @@
       <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>500</v>
       </c>
       <c r="J29" s="1">
@@ -2759,7 +3014,7 @@
       <c r="L29" s="1">
         <v>4</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="1">
         <v>50</v>
       </c>
       <c r="N29" s="1">
@@ -2777,50 +3032,34 @@
       <c r="R29" s="1">
         <v>1</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1">
         <v>0.2</v>
       </c>
-      <c r="T29" s="1">
-        <v>2</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-      <c r="V29">
+      <c r="AB29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
         <v>811</v>
       </c>
-      <c r="W29" s="1">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1">
+      <c r="AE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AG29" s="1">
         <v>10</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>1</v>
       </c>
       <c r="AH29" s="1">
         <v>0</v>
@@ -2829,10 +3068,35 @@
         <v>854</v>
       </c>
       <c r="AJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -2842,7 +3106,7 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>200</v>
       </c>
       <c r="F30" s="1">
@@ -2854,7 +3118,7 @@
       <c r="H30" s="1">
         <v>3</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>500</v>
       </c>
       <c r="J30" s="1">
@@ -2866,7 +3130,7 @@
       <c r="L30" s="1">
         <v>4</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="1">
         <v>50</v>
       </c>
       <c r="N30" s="1">
@@ -2884,50 +3148,34 @@
       <c r="R30" s="1">
         <v>1</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1">
         <v>0.2</v>
       </c>
-      <c r="T30" s="1">
-        <v>2</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AB30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
         <v>812</v>
       </c>
-      <c r="W30" s="1">
-        <v>1</v>
-      </c>
-      <c r="X30" s="1">
+      <c r="AE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="AG30" s="1">
         <v>10</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>1</v>
       </c>
       <c r="AH30" s="1">
         <v>0</v>
@@ -2936,10 +3184,35 @@
         <v>854</v>
       </c>
       <c r="AJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -2949,7 +3222,7 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>200</v>
       </c>
       <c r="F31" s="1">
@@ -2961,7 +3234,7 @@
       <c r="H31" s="1">
         <v>3</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>500</v>
       </c>
       <c r="J31" s="1">
@@ -2973,7 +3246,7 @@
       <c r="L31" s="1">
         <v>4</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="1">
         <v>50</v>
       </c>
       <c r="N31" s="1">
@@ -2991,50 +3264,34 @@
       <c r="R31" s="1">
         <v>1</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1">
         <v>0.2</v>
       </c>
-      <c r="T31" s="1">
-        <v>2</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31">
+      <c r="AB31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
         <v>812</v>
       </c>
-      <c r="W31" s="1">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1">
+      <c r="AE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="AG31" s="1">
         <v>10</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>1</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -3043,10 +3300,35 @@
         <v>854</v>
       </c>
       <c r="AJ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR31" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -3056,7 +3338,7 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>300</v>
       </c>
       <c r="F32" s="1">
@@ -3068,7 +3350,7 @@
       <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <v>600</v>
       </c>
       <c r="J32" s="1">
@@ -3080,7 +3362,7 @@
       <c r="L32" s="1">
         <v>4</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="1">
         <v>70</v>
       </c>
       <c r="N32" s="1">
@@ -3092,56 +3374,40 @@
       <c r="P32" s="1">
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>813</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1">
         <v>0.2</v>
       </c>
-      <c r="T32" s="1">
-        <v>2</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="AB32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
         <v>818</v>
       </c>
-      <c r="W32" s="1">
-        <v>1</v>
-      </c>
-      <c r="X32" s="1">
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="AG32" s="1">
         <v>10</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -3150,10 +3416,35 @@
         <v>854</v>
       </c>
       <c r="AJ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>1</v>
       </c>
@@ -3163,7 +3454,7 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>300</v>
       </c>
       <c r="F33" s="1">
@@ -3175,7 +3466,7 @@
       <c r="H33" s="1">
         <v>3</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>600</v>
       </c>
       <c r="J33" s="1">
@@ -3187,7 +3478,7 @@
       <c r="L33" s="1">
         <v>4</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="1">
         <v>70</v>
       </c>
       <c r="N33" s="1">
@@ -3199,56 +3490,40 @@
       <c r="P33" s="1">
         <v>0</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>814</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1">
         <v>0.2</v>
       </c>
-      <c r="T33" s="1">
-        <v>2</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33">
+      <c r="AB33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
         <v>818</v>
       </c>
-      <c r="W33" s="1">
-        <v>1</v>
-      </c>
-      <c r="X33" s="1">
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="AG33" s="1">
         <v>10</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>1</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -3257,10 +3532,35 @@
         <v>854</v>
       </c>
       <c r="AJ33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR33" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -3270,7 +3570,7 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>300</v>
       </c>
       <c r="F34" s="1">
@@ -3282,7 +3582,7 @@
       <c r="H34" s="1">
         <v>3</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>600</v>
       </c>
       <c r="J34" s="1">
@@ -3294,7 +3594,7 @@
       <c r="L34" s="1">
         <v>4</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="1">
         <v>70</v>
       </c>
       <c r="N34" s="1">
@@ -3306,56 +3606,40 @@
       <c r="P34" s="1">
         <v>0</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>815</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1">
         <v>0.2</v>
       </c>
-      <c r="T34" s="1">
-        <v>2</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
-      <c r="V34">
+      <c r="AB34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
         <v>818</v>
       </c>
-      <c r="W34" s="1">
-        <v>1</v>
-      </c>
-      <c r="X34" s="1">
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="AG34" s="1">
         <v>10</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>1</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -3364,10 +3648,35 @@
         <v>854</v>
       </c>
       <c r="AJ34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>1</v>
       </c>
@@ -3377,7 +3686,7 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>300</v>
       </c>
       <c r="F35" s="1">
@@ -3389,7 +3698,7 @@
       <c r="H35" s="1">
         <v>3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>600</v>
       </c>
       <c r="J35" s="1">
@@ -3401,7 +3710,7 @@
       <c r="L35" s="1">
         <v>4</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="1">
         <v>70</v>
       </c>
       <c r="N35" s="1">
@@ -3413,56 +3722,40 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>816</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1">
         <v>0.2</v>
       </c>
-      <c r="T35" s="1">
-        <v>2</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
-      </c>
-      <c r="V35">
+      <c r="AB35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
         <v>819</v>
       </c>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1">
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="AG35" s="1">
         <v>10</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>1</v>
       </c>
       <c r="AH35" s="1">
         <v>0</v>
@@ -3471,10 +3764,35 @@
         <v>854</v>
       </c>
       <c r="AJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR35" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -3484,7 +3802,7 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>300</v>
       </c>
       <c r="F36" s="1">
@@ -3496,7 +3814,7 @@
       <c r="H36" s="1">
         <v>3</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>600</v>
       </c>
       <c r="J36" s="1">
@@ -3508,7 +3826,7 @@
       <c r="L36" s="1">
         <v>4</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="1">
         <v>70</v>
       </c>
       <c r="N36" s="1">
@@ -3520,56 +3838,40 @@
       <c r="P36" s="1">
         <v>0</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>817</v>
       </c>
       <c r="R36" s="1">
         <v>1</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1">
         <v>0.2</v>
       </c>
-      <c r="T36" s="1">
-        <v>2</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0</v>
-      </c>
-      <c r="V36">
+      <c r="AB36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
         <v>819</v>
       </c>
-      <c r="W36" s="1">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1">
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="AG36" s="1">
         <v>10</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>1</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -3578,10 +3880,35 @@
         <v>854</v>
       </c>
       <c r="AJ36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR36" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -3591,7 +3918,7 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>300</v>
       </c>
       <c r="F37" s="1">
@@ -3603,7 +3930,7 @@
       <c r="H37" s="1">
         <v>3</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>600</v>
       </c>
       <c r="J37" s="1">
@@ -3615,7 +3942,7 @@
       <c r="L37" s="1">
         <v>4</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="1">
         <v>70</v>
       </c>
       <c r="N37" s="1">
@@ -3627,56 +3954,40 @@
       <c r="P37" s="1">
         <v>0</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>813</v>
       </c>
       <c r="R37" s="1">
         <v>1</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1">
         <v>0.2</v>
       </c>
-      <c r="T37" s="1">
-        <v>2</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
-      <c r="V37">
+      <c r="AB37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
         <v>820</v>
       </c>
-      <c r="W37" s="1">
-        <v>1</v>
-      </c>
-      <c r="X37" s="1">
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="AG37" s="1">
         <v>10</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>1</v>
       </c>
       <c r="AH37" s="1">
         <v>0</v>
@@ -3685,10 +3996,35 @@
         <v>854</v>
       </c>
       <c r="AJ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -3698,7 +4034,7 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>300</v>
       </c>
       <c r="F38" s="1">
@@ -3710,7 +4046,7 @@
       <c r="H38" s="1">
         <v>3</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>600</v>
       </c>
       <c r="J38" s="1">
@@ -3722,7 +4058,7 @@
       <c r="L38" s="1">
         <v>4</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="1">
         <v>70</v>
       </c>
       <c r="N38" s="1">
@@ -3734,56 +4070,40 @@
       <c r="P38" s="1">
         <v>0</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>814</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1">
         <v>0.2</v>
       </c>
-      <c r="T38" s="1">
-        <v>2</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38">
+      <c r="AB38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
         <v>820</v>
       </c>
-      <c r="W38" s="1">
-        <v>1</v>
-      </c>
-      <c r="X38" s="1">
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="AG38" s="1">
         <v>10</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>854</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>854</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>1</v>
       </c>
       <c r="AH38" s="1">
         <v>0</v>
@@ -3792,10 +4112,35 @@
         <v>854</v>
       </c>
       <c r="AJ38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>854</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>854</v>
+      </c>
+      <c r="AR38" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>1</v>
       </c>
@@ -3805,7 +4150,7 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>400</v>
       </c>
       <c r="F39" s="1">
@@ -3817,7 +4162,7 @@
       <c r="H39" s="1">
         <v>3</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>800</v>
       </c>
       <c r="J39" s="1">
@@ -3829,7 +4174,7 @@
       <c r="L39" s="1">
         <v>4</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="1">
         <v>100</v>
       </c>
       <c r="N39" s="1">
@@ -3841,56 +4186,40 @@
       <c r="P39" s="1">
         <v>0</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="1">
         <v>815</v>
       </c>
       <c r="R39" s="1">
         <v>1</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1">
         <v>0.2</v>
       </c>
-      <c r="T39" s="1">
-        <v>2</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="AB39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
         <v>821</v>
       </c>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1">
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="AG39" s="1">
         <v>10</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>1</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -3899,10 +4228,35 @@
         <v>855</v>
       </c>
       <c r="AJ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -3912,7 +4266,7 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>400</v>
       </c>
       <c r="F40" s="1">
@@ -3924,7 +4278,7 @@
       <c r="H40" s="1">
         <v>3</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>800</v>
       </c>
       <c r="J40" s="1">
@@ -3936,7 +4290,7 @@
       <c r="L40" s="1">
         <v>4</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="1">
         <v>100</v>
       </c>
       <c r="N40" s="1">
@@ -3948,56 +4302,40 @@
       <c r="P40" s="1">
         <v>0</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>816</v>
       </c>
       <c r="R40" s="1">
         <v>1</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1">
         <v>0.2</v>
       </c>
-      <c r="T40" s="1">
-        <v>2</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0</v>
-      </c>
-      <c r="V40">
+      <c r="AB40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>821</v>
       </c>
-      <c r="W40" s="1">
-        <v>1</v>
-      </c>
-      <c r="X40" s="1">
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="AG40" s="1">
         <v>10</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>1</v>
       </c>
       <c r="AH40" s="1">
         <v>0</v>
@@ -4006,10 +4344,35 @@
         <v>855</v>
       </c>
       <c r="AJ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR40" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1</v>
       </c>
@@ -4019,7 +4382,7 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>400</v>
       </c>
       <c r="F41" s="1">
@@ -4031,7 +4394,7 @@
       <c r="H41" s="1">
         <v>3</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>800</v>
       </c>
       <c r="J41" s="1">
@@ -4043,7 +4406,7 @@
       <c r="L41" s="1">
         <v>4</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="1">
         <v>100</v>
       </c>
       <c r="N41" s="1">
@@ -4055,56 +4418,40 @@
       <c r="P41" s="1">
         <v>0</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="1">
         <v>817</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1">
         <v>0.2</v>
       </c>
-      <c r="T41" s="1">
-        <v>2</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="AB41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
         <v>821</v>
       </c>
-      <c r="W41" s="1">
-        <v>1</v>
-      </c>
-      <c r="X41" s="1">
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="AG41" s="1">
         <v>10</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>1</v>
       </c>
       <c r="AH41" s="1">
         <v>0</v>
@@ -4113,10 +4460,35 @@
         <v>855</v>
       </c>
       <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>1</v>
       </c>
@@ -4126,7 +4498,7 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>400</v>
       </c>
       <c r="F42" s="1">
@@ -4138,7 +4510,7 @@
       <c r="H42" s="1">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>800</v>
       </c>
       <c r="J42" s="1">
@@ -4150,7 +4522,7 @@
       <c r="L42" s="1">
         <v>4</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="1">
         <v>100</v>
       </c>
       <c r="N42" s="1">
@@ -4162,56 +4534,40 @@
       <c r="P42" s="1">
         <v>0</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="1">
         <v>813</v>
       </c>
       <c r="R42" s="1">
         <v>1</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1">
         <v>0.2</v>
       </c>
-      <c r="T42" s="1">
-        <v>2</v>
-      </c>
-      <c r="U42" s="1">
-        <v>0</v>
-      </c>
-      <c r="V42">
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
         <v>822</v>
       </c>
-      <c r="W42" s="1">
-        <v>1</v>
-      </c>
-      <c r="X42" s="1">
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="AG42" s="1">
         <v>10</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>1</v>
       </c>
       <c r="AH42" s="1">
         <v>0</v>
@@ -4220,10 +4576,35 @@
         <v>855</v>
       </c>
       <c r="AJ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>1</v>
       </c>
@@ -4233,7 +4614,7 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>400</v>
       </c>
       <c r="F43" s="1">
@@ -4245,7 +4626,7 @@
       <c r="H43" s="1">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>800</v>
       </c>
       <c r="J43" s="1">
@@ -4257,7 +4638,7 @@
       <c r="L43" s="1">
         <v>4</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="1">
         <v>100</v>
       </c>
       <c r="N43" s="1">
@@ -4269,56 +4650,40 @@
       <c r="P43" s="1">
         <v>0</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>814</v>
       </c>
       <c r="R43" s="1">
         <v>1</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1">
         <v>0.2</v>
       </c>
-      <c r="T43" s="1">
-        <v>2</v>
-      </c>
-      <c r="U43" s="1">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="AB43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
         <v>822</v>
       </c>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1">
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="AG43" s="1">
         <v>10</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>1</v>
       </c>
       <c r="AH43" s="1">
         <v>0</v>
@@ -4327,10 +4692,35 @@
         <v>855</v>
       </c>
       <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR43" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -4340,7 +4730,7 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>400</v>
       </c>
       <c r="F44" s="1">
@@ -4352,7 +4742,7 @@
       <c r="H44" s="1">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <v>800</v>
       </c>
       <c r="J44" s="1">
@@ -4364,7 +4754,7 @@
       <c r="L44" s="1">
         <v>4</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="1">
         <v>100</v>
       </c>
       <c r="N44" s="1">
@@ -4376,56 +4766,40 @@
       <c r="P44" s="1">
         <v>0</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="1">
         <v>815</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1">
         <v>0.2</v>
       </c>
-      <c r="T44" s="1">
-        <v>2</v>
-      </c>
-      <c r="U44" s="1">
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="AB44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
         <v>823</v>
       </c>
-      <c r="W44" s="1">
-        <v>1</v>
-      </c>
-      <c r="X44" s="1">
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="AG44" s="1">
         <v>10</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>1</v>
       </c>
       <c r="AH44" s="1">
         <v>0</v>
@@ -4434,10 +4808,35 @@
         <v>855</v>
       </c>
       <c r="AJ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>1</v>
       </c>
@@ -4447,7 +4846,7 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>400</v>
       </c>
       <c r="F45" s="1">
@@ -4459,7 +4858,7 @@
       <c r="H45" s="1">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>800</v>
       </c>
       <c r="J45" s="1">
@@ -4471,7 +4870,7 @@
       <c r="L45" s="1">
         <v>4</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="1">
         <v>100</v>
       </c>
       <c r="N45" s="1">
@@ -4483,56 +4882,40 @@
       <c r="P45" s="1">
         <v>0</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="1">
         <v>816</v>
       </c>
       <c r="R45" s="1">
         <v>1</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1">
         <v>0.2</v>
       </c>
-      <c r="T45" s="1">
-        <v>2</v>
-      </c>
-      <c r="U45" s="1">
-        <v>0</v>
-      </c>
-      <c r="V45">
+      <c r="AB45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
         <v>823</v>
       </c>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-      <c r="X45" s="1">
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="AG45" s="1">
         <v>10</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG45" s="1">
-        <v>1</v>
       </c>
       <c r="AH45" s="1">
         <v>0</v>
@@ -4541,10 +4924,35 @@
         <v>855</v>
       </c>
       <c r="AJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR45" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>1</v>
       </c>
@@ -4554,7 +4962,7 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>600</v>
       </c>
       <c r="F46" s="1">
@@ -4566,7 +4974,7 @@
       <c r="H46" s="1">
         <v>3</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <v>1000</v>
       </c>
       <c r="J46" s="1">
@@ -4578,7 +4986,7 @@
       <c r="L46" s="1">
         <v>4</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="1">
         <v>130</v>
       </c>
       <c r="N46" s="1">
@@ -4590,56 +4998,40 @@
       <c r="P46" s="1">
         <v>0</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="1">
         <v>824</v>
       </c>
       <c r="R46" s="1">
         <v>1</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1">
         <v>0.2</v>
       </c>
-      <c r="T46" s="1">
-        <v>2</v>
-      </c>
-      <c r="U46" s="1">
-        <v>0</v>
-      </c>
-      <c r="V46">
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
         <v>830</v>
       </c>
-      <c r="W46" s="1">
-        <v>1</v>
-      </c>
-      <c r="X46" s="1">
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="AG46" s="1">
         <v>10</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG46" s="1">
-        <v>1</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -4648,10 +5040,35 @@
         <v>855</v>
       </c>
       <c r="AJ46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR46" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>1</v>
       </c>
@@ -4661,7 +5078,7 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>600</v>
       </c>
       <c r="F47" s="1">
@@ -4673,7 +5090,7 @@
       <c r="H47" s="1">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>1000</v>
       </c>
       <c r="J47" s="1">
@@ -4685,7 +5102,7 @@
       <c r="L47" s="1">
         <v>4</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="1">
         <v>130</v>
       </c>
       <c r="N47" s="1">
@@ -4697,56 +5114,40 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="1">
         <v>825</v>
       </c>
       <c r="R47" s="1">
         <v>1</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1">
         <v>0.2</v>
       </c>
-      <c r="T47" s="1">
-        <v>2</v>
-      </c>
-      <c r="U47" s="1">
-        <v>0</v>
-      </c>
-      <c r="V47">
+      <c r="AB47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
         <v>830</v>
       </c>
-      <c r="W47" s="1">
-        <v>1</v>
-      </c>
-      <c r="X47" s="1">
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="AG47" s="1">
         <v>10</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG47" s="1">
-        <v>1</v>
       </c>
       <c r="AH47" s="1">
         <v>0</v>
@@ -4755,10 +5156,35 @@
         <v>855</v>
       </c>
       <c r="AJ47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR47" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -4768,7 +5194,7 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>600</v>
       </c>
       <c r="F48" s="1">
@@ -4780,7 +5206,7 @@
       <c r="H48" s="1">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>1000</v>
       </c>
       <c r="J48" s="1">
@@ -4792,7 +5218,7 @@
       <c r="L48" s="1">
         <v>4</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="1">
         <v>130</v>
       </c>
       <c r="N48" s="1">
@@ -4804,56 +5230,40 @@
       <c r="P48" s="1">
         <v>0</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="1">
         <v>826</v>
       </c>
       <c r="R48" s="1">
         <v>1</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1">
         <v>0.2</v>
       </c>
-      <c r="T48" s="1">
-        <v>2</v>
-      </c>
-      <c r="U48" s="1">
-        <v>0</v>
-      </c>
-      <c r="V48">
+      <c r="AB48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
         <v>831</v>
       </c>
-      <c r="W48" s="1">
-        <v>1</v>
-      </c>
-      <c r="X48" s="1">
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="AG48" s="1">
         <v>10</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG48" s="1">
-        <v>1</v>
       </c>
       <c r="AH48" s="1">
         <v>0</v>
@@ -4862,10 +5272,35 @@
         <v>855</v>
       </c>
       <c r="AJ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR48" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="49" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -4875,7 +5310,7 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>600</v>
       </c>
       <c r="F49" s="1">
@@ -4887,7 +5322,7 @@
       <c r="H49" s="1">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>1000</v>
       </c>
       <c r="J49" s="1">
@@ -4899,7 +5334,7 @@
       <c r="L49" s="1">
         <v>4</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="1">
         <v>130</v>
       </c>
       <c r="N49" s="1">
@@ -4911,56 +5346,40 @@
       <c r="P49" s="1">
         <v>0</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="1">
         <v>827</v>
       </c>
       <c r="R49" s="1">
         <v>1</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1">
         <v>0.2</v>
       </c>
-      <c r="T49" s="1">
-        <v>2</v>
-      </c>
-      <c r="U49" s="1">
-        <v>0</v>
-      </c>
-      <c r="V49">
+      <c r="AB49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
         <v>831</v>
       </c>
-      <c r="W49" s="1">
-        <v>1</v>
-      </c>
-      <c r="X49" s="1">
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="AG49" s="1">
         <v>10</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG49" s="1">
-        <v>1</v>
       </c>
       <c r="AH49" s="1">
         <v>0</v>
@@ -4969,10 +5388,35 @@
         <v>855</v>
       </c>
       <c r="AJ49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR49" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="50" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>1</v>
       </c>
@@ -4982,7 +5426,7 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>600</v>
       </c>
       <c r="F50" s="1">
@@ -4994,7 +5438,7 @@
       <c r="H50" s="1">
         <v>3</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>1000</v>
       </c>
       <c r="J50" s="1">
@@ -5006,7 +5450,7 @@
       <c r="L50" s="1">
         <v>4</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="1">
         <v>130</v>
       </c>
       <c r="N50" s="1">
@@ -5018,56 +5462,40 @@
       <c r="P50" s="1">
         <v>0</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="1">
         <v>828</v>
       </c>
       <c r="R50" s="1">
         <v>1</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1">
         <v>0.2</v>
       </c>
-      <c r="T50" s="1">
-        <v>2</v>
-      </c>
-      <c r="U50" s="1">
-        <v>0</v>
-      </c>
-      <c r="V50">
+      <c r="AB50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
         <v>832</v>
       </c>
-      <c r="W50" s="1">
-        <v>1</v>
-      </c>
-      <c r="X50" s="1">
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="AG50" s="1">
         <v>10</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG50" s="1">
-        <v>1</v>
       </c>
       <c r="AH50" s="1">
         <v>0</v>
@@ -5076,10 +5504,35 @@
         <v>855</v>
       </c>
       <c r="AJ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR50" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -5089,7 +5542,7 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>600</v>
       </c>
       <c r="F51" s="1">
@@ -5101,7 +5554,7 @@
       <c r="H51" s="1">
         <v>3</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>1000</v>
       </c>
       <c r="J51" s="1">
@@ -5113,7 +5566,7 @@
       <c r="L51" s="1">
         <v>4</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="1">
         <v>130</v>
       </c>
       <c r="N51" s="1">
@@ -5125,56 +5578,40 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="1">
         <v>829</v>
       </c>
       <c r="R51" s="1">
         <v>1</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1">
         <v>0.2</v>
       </c>
-      <c r="T51" s="1">
-        <v>2</v>
-      </c>
-      <c r="U51" s="1">
-        <v>0</v>
-      </c>
-      <c r="V51">
+      <c r="AB51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
         <v>832</v>
       </c>
-      <c r="W51" s="1">
-        <v>1</v>
-      </c>
-      <c r="X51" s="1">
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="AG51" s="1">
         <v>10</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG51" s="1">
-        <v>1</v>
       </c>
       <c r="AH51" s="1">
         <v>0</v>
@@ -5183,10 +5620,35 @@
         <v>855</v>
       </c>
       <c r="AJ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR51" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>1</v>
       </c>
@@ -5196,7 +5658,7 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>600</v>
       </c>
       <c r="F52" s="1">
@@ -5208,7 +5670,7 @@
       <c r="H52" s="1">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>1000</v>
       </c>
       <c r="J52" s="1">
@@ -5220,7 +5682,7 @@
       <c r="L52" s="1">
         <v>4</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="1">
         <v>130</v>
       </c>
       <c r="N52" s="1">
@@ -5232,56 +5694,40 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="1">
         <v>824</v>
       </c>
       <c r="R52" s="1">
         <v>1</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1">
         <v>0.2</v>
       </c>
-      <c r="T52" s="1">
-        <v>2</v>
-      </c>
-      <c r="U52" s="1">
-        <v>0</v>
-      </c>
-      <c r="V52">
+      <c r="AB52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
         <v>833</v>
       </c>
-      <c r="W52" s="1">
-        <v>1</v>
-      </c>
-      <c r="X52" s="1">
+      <c r="AE52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="AG52" s="1">
         <v>10</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>855</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="1">
-        <v>855</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG52" s="1">
-        <v>1</v>
       </c>
       <c r="AH52" s="1">
         <v>0</v>
@@ -5290,10 +5736,35 @@
         <v>855</v>
       </c>
       <c r="AJ52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>855</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>855</v>
+      </c>
+      <c r="AR52" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="53" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>1</v>
       </c>
@@ -5303,7 +5774,7 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>800</v>
       </c>
       <c r="F53" s="1">
@@ -5315,7 +5786,7 @@
       <c r="H53" s="1">
         <v>3</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <v>1200</v>
       </c>
       <c r="J53" s="1">
@@ -5327,7 +5798,7 @@
       <c r="L53" s="1">
         <v>4</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="1">
         <v>160</v>
       </c>
       <c r="N53" s="1">
@@ -5339,56 +5810,40 @@
       <c r="P53" s="1">
         <v>0</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="1">
         <v>825</v>
       </c>
       <c r="R53" s="1">
         <v>1</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1">
         <v>0.2</v>
       </c>
-      <c r="T53" s="1">
-        <v>2</v>
-      </c>
-      <c r="U53" s="1">
-        <v>0</v>
-      </c>
-      <c r="V53">
+      <c r="AB53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
         <v>834</v>
       </c>
-      <c r="W53" s="1">
-        <v>1</v>
-      </c>
-      <c r="X53" s="1">
+      <c r="AE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="AG53" s="1">
         <v>10</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF53" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG53" s="1">
-        <v>1</v>
       </c>
       <c r="AH53" s="1">
         <v>0</v>
@@ -5397,10 +5852,35 @@
         <v>856</v>
       </c>
       <c r="AJ53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR53" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="54" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>1</v>
       </c>
@@ -5410,7 +5890,7 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>800</v>
       </c>
       <c r="F54" s="1">
@@ -5422,7 +5902,7 @@
       <c r="H54" s="1">
         <v>3</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <v>1200</v>
       </c>
       <c r="J54" s="1">
@@ -5434,7 +5914,7 @@
       <c r="L54" s="1">
         <v>4</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="1">
         <v>160</v>
       </c>
       <c r="N54" s="1">
@@ -5446,56 +5926,40 @@
       <c r="P54" s="1">
         <v>0</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="1">
         <v>826</v>
       </c>
       <c r="R54" s="1">
         <v>1</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1">
         <v>0.2</v>
       </c>
-      <c r="T54" s="1">
-        <v>2</v>
-      </c>
-      <c r="U54" s="1">
-        <v>0</v>
-      </c>
-      <c r="V54">
+      <c r="AB54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
         <v>834</v>
       </c>
-      <c r="W54" s="1">
-        <v>1</v>
-      </c>
-      <c r="X54" s="1">
+      <c r="AE54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="AG54" s="1">
         <v>10</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG54" s="1">
-        <v>1</v>
       </c>
       <c r="AH54" s="1">
         <v>0</v>
@@ -5504,10 +5968,35 @@
         <v>856</v>
       </c>
       <c r="AJ54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR54" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="55" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -5517,7 +6006,7 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>800</v>
       </c>
       <c r="F55" s="1">
@@ -5529,7 +6018,7 @@
       <c r="H55" s="1">
         <v>3</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <v>1200</v>
       </c>
       <c r="J55" s="1">
@@ -5541,7 +6030,7 @@
       <c r="L55" s="1">
         <v>4</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="1">
         <v>160</v>
       </c>
       <c r="N55" s="1">
@@ -5553,56 +6042,40 @@
       <c r="P55" s="1">
         <v>0</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="1">
         <v>827</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1">
         <v>0.2</v>
       </c>
-      <c r="T55" s="1">
-        <v>2</v>
-      </c>
-      <c r="U55" s="1">
-        <v>0</v>
-      </c>
-      <c r="V55">
+      <c r="AB55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
         <v>835</v>
       </c>
-      <c r="W55" s="1">
-        <v>1</v>
-      </c>
-      <c r="X55" s="1">
+      <c r="AE55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="AG55" s="1">
         <v>10</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG55" s="1">
-        <v>1</v>
       </c>
       <c r="AH55" s="1">
         <v>0</v>
@@ -5611,10 +6084,35 @@
         <v>856</v>
       </c>
       <c r="AJ55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR55" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="56" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -5624,7 +6122,7 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>800</v>
       </c>
       <c r="F56" s="1">
@@ -5636,7 +6134,7 @@
       <c r="H56" s="1">
         <v>3</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <v>1200</v>
       </c>
       <c r="J56" s="1">
@@ -5648,7 +6146,7 @@
       <c r="L56" s="1">
         <v>4</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="1">
         <v>160</v>
       </c>
       <c r="N56" s="1">
@@ -5660,56 +6158,40 @@
       <c r="P56" s="1">
         <v>0</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="1">
         <v>828</v>
       </c>
       <c r="R56" s="1">
         <v>1</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1">
         <v>0.2</v>
       </c>
-      <c r="T56" s="1">
-        <v>2</v>
-      </c>
-      <c r="U56" s="1">
-        <v>0</v>
-      </c>
-      <c r="V56">
+      <c r="AB56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
         <v>835</v>
       </c>
-      <c r="W56" s="1">
-        <v>1</v>
-      </c>
-      <c r="X56" s="1">
+      <c r="AE56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="AG56" s="1">
         <v>10</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG56" s="1">
-        <v>1</v>
       </c>
       <c r="AH56" s="1">
         <v>0</v>
@@ -5718,10 +6200,35 @@
         <v>856</v>
       </c>
       <c r="AJ56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR56" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="57" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>1</v>
       </c>
@@ -5731,7 +6238,7 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>800</v>
       </c>
       <c r="F57" s="1">
@@ -5743,7 +6250,7 @@
       <c r="H57" s="1">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <v>1200</v>
       </c>
       <c r="J57" s="1">
@@ -5755,7 +6262,7 @@
       <c r="L57" s="1">
         <v>4</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="1">
         <v>160</v>
       </c>
       <c r="N57" s="1">
@@ -5767,56 +6274,40 @@
       <c r="P57" s="1">
         <v>0</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="1">
         <v>829</v>
       </c>
       <c r="R57" s="1">
         <v>1</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1">
         <v>0.2</v>
       </c>
-      <c r="T57" s="1">
-        <v>2</v>
-      </c>
-      <c r="U57" s="1">
-        <v>0</v>
-      </c>
-      <c r="V57">
+      <c r="AB57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
         <v>836</v>
       </c>
-      <c r="W57" s="1">
-        <v>1</v>
-      </c>
-      <c r="X57" s="1">
+      <c r="AE57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="AG57" s="1">
         <v>10</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>1</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
@@ -5825,10 +6316,35 @@
         <v>856</v>
       </c>
       <c r="AJ57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR57" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="58" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>1</v>
       </c>
@@ -5838,7 +6354,7 @@
       <c r="D58" s="1">
         <v>1</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>800</v>
       </c>
       <c r="F58" s="1">
@@ -5850,7 +6366,7 @@
       <c r="H58" s="1">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <v>1200</v>
       </c>
       <c r="J58" s="1">
@@ -5862,7 +6378,7 @@
       <c r="L58" s="1">
         <v>4</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="1">
         <v>160</v>
       </c>
       <c r="N58" s="1">
@@ -5874,56 +6390,40 @@
       <c r="P58" s="1">
         <v>0</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="1">
         <v>824</v>
       </c>
       <c r="R58" s="1">
         <v>1</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1">
         <v>0.2</v>
       </c>
-      <c r="T58" s="1">
-        <v>2</v>
-      </c>
-      <c r="U58" s="1">
-        <v>0</v>
-      </c>
-      <c r="V58">
+      <c r="AB58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
         <v>836</v>
       </c>
-      <c r="W58" s="1">
-        <v>1</v>
-      </c>
-      <c r="X58" s="1">
+      <c r="AE58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="AG58" s="1">
         <v>10</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>1</v>
       </c>
       <c r="AH58" s="1">
         <v>0</v>
@@ -5932,10 +6432,35 @@
         <v>856</v>
       </c>
       <c r="AJ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR58" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="59" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>1</v>
       </c>
@@ -5945,7 +6470,7 @@
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>800</v>
       </c>
       <c r="F59" s="1">
@@ -5957,7 +6482,7 @@
       <c r="H59" s="1">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <v>1200</v>
       </c>
       <c r="J59" s="1">
@@ -5969,7 +6494,7 @@
       <c r="L59" s="1">
         <v>4</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="1">
         <v>160</v>
       </c>
       <c r="N59" s="1">
@@ -5981,56 +6506,40 @@
       <c r="P59" s="1">
         <v>0</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="1">
         <v>825</v>
       </c>
       <c r="R59" s="1">
         <v>1</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1">
         <v>0.2</v>
       </c>
-      <c r="T59" s="1">
-        <v>2</v>
-      </c>
-      <c r="U59" s="1">
-        <v>0</v>
-      </c>
-      <c r="V59">
+      <c r="AB59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
         <v>833</v>
       </c>
-      <c r="W59" s="1">
-        <v>1</v>
-      </c>
-      <c r="X59" s="1">
+      <c r="AE59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="AG59" s="1">
         <v>10</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG59" s="1">
-        <v>1</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -6039,10 +6548,35 @@
         <v>856</v>
       </c>
       <c r="AJ59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR59" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -6052,7 +6586,7 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>1050</v>
       </c>
       <c r="F60" s="1">
@@ -6064,7 +6598,7 @@
       <c r="H60" s="1">
         <v>3</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <v>1400</v>
       </c>
       <c r="J60" s="1">
@@ -6076,7 +6610,7 @@
       <c r="L60" s="1">
         <v>4</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="1">
         <v>200</v>
       </c>
       <c r="N60" s="1">
@@ -6088,56 +6622,40 @@
       <c r="P60" s="1">
         <v>0</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="1">
         <v>837</v>
       </c>
       <c r="R60" s="1">
         <v>1</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1">
         <v>0.2</v>
       </c>
-      <c r="T60" s="1">
-        <v>2</v>
-      </c>
-      <c r="U60" s="1">
-        <v>0</v>
-      </c>
-      <c r="V60">
+      <c r="AB60" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
         <v>844</v>
       </c>
-      <c r="W60" s="1">
-        <v>1</v>
-      </c>
-      <c r="X60" s="1">
+      <c r="AE60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="AG60" s="1">
         <v>10</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG60" s="1">
-        <v>1</v>
       </c>
       <c r="AH60" s="1">
         <v>0</v>
@@ -6146,10 +6664,35 @@
         <v>856</v>
       </c>
       <c r="AJ60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>1</v>
       </c>
@@ -6159,7 +6702,7 @@
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>1050</v>
       </c>
       <c r="F61" s="1">
@@ -6171,7 +6714,7 @@
       <c r="H61" s="1">
         <v>3</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <v>1400</v>
       </c>
       <c r="J61" s="1">
@@ -6183,7 +6726,7 @@
       <c r="L61" s="1">
         <v>4</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="1">
         <v>200</v>
       </c>
       <c r="N61" s="1">
@@ -6195,56 +6738,40 @@
       <c r="P61" s="1">
         <v>0</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="1">
         <v>838</v>
       </c>
       <c r="R61" s="1">
         <v>1</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1">
         <v>0.2</v>
       </c>
-      <c r="T61" s="1">
-        <v>2</v>
-      </c>
-      <c r="U61" s="1">
-        <v>0</v>
-      </c>
-      <c r="V61">
+      <c r="AB61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
         <v>844</v>
       </c>
-      <c r="W61" s="1">
-        <v>1</v>
-      </c>
-      <c r="X61" s="1">
+      <c r="AE61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="AG61" s="1">
         <v>10</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB61" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG61" s="1">
-        <v>1</v>
       </c>
       <c r="AH61" s="1">
         <v>0</v>
@@ -6253,10 +6780,35 @@
         <v>856</v>
       </c>
       <c r="AJ61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR61" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="62" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>1</v>
       </c>
@@ -6266,7 +6818,7 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>1050</v>
       </c>
       <c r="F62" s="1">
@@ -6278,7 +6830,7 @@
       <c r="H62" s="1">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <v>1400</v>
       </c>
       <c r="J62" s="1">
@@ -6290,7 +6842,7 @@
       <c r="L62" s="1">
         <v>4</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="1">
         <v>200</v>
       </c>
       <c r="N62" s="1">
@@ -6302,56 +6854,40 @@
       <c r="P62" s="1">
         <v>0</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="1">
         <v>839</v>
       </c>
       <c r="R62" s="1">
         <v>1</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1">
         <v>0.2</v>
       </c>
-      <c r="T62" s="1">
-        <v>2</v>
-      </c>
-      <c r="U62" s="1">
-        <v>0</v>
-      </c>
-      <c r="V62">
+      <c r="AB62" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
         <v>845</v>
       </c>
-      <c r="W62" s="1">
-        <v>1</v>
-      </c>
-      <c r="X62" s="1">
+      <c r="AE62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="AG62" s="1">
         <v>10</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB62" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG62" s="1">
-        <v>1</v>
       </c>
       <c r="AH62" s="1">
         <v>0</v>
@@ -6360,10 +6896,35 @@
         <v>856</v>
       </c>
       <c r="AJ62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>1</v>
       </c>
@@ -6373,7 +6934,7 @@
       <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>1050</v>
       </c>
       <c r="F63" s="1">
@@ -6385,7 +6946,7 @@
       <c r="H63" s="1">
         <v>3</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <v>1400</v>
       </c>
       <c r="J63" s="1">
@@ -6397,7 +6958,7 @@
       <c r="L63" s="1">
         <v>4</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="1">
         <v>200</v>
       </c>
       <c r="N63" s="1">
@@ -6409,56 +6970,40 @@
       <c r="P63" s="1">
         <v>0</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="1">
         <v>840</v>
       </c>
       <c r="R63" s="1">
         <v>1</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1">
         <v>0.2</v>
       </c>
-      <c r="T63" s="1">
-        <v>2</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0</v>
-      </c>
-      <c r="V63">
+      <c r="AB63" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
         <v>845</v>
       </c>
-      <c r="W63" s="1">
-        <v>1</v>
-      </c>
-      <c r="X63" s="1">
+      <c r="AE63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y63" s="1">
+      <c r="AG63" s="1">
         <v>10</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG63" s="1">
-        <v>1</v>
       </c>
       <c r="AH63" s="1">
         <v>0</v>
@@ -6467,10 +7012,35 @@
         <v>856</v>
       </c>
       <c r="AJ63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="64" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>1</v>
       </c>
@@ -6480,7 +7050,7 @@
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>1050</v>
       </c>
       <c r="F64" s="1">
@@ -6492,7 +7062,7 @@
       <c r="H64" s="1">
         <v>3</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <v>1400</v>
       </c>
       <c r="J64" s="1">
@@ -6504,7 +7074,7 @@
       <c r="L64" s="1">
         <v>4</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="1">
         <v>200</v>
       </c>
       <c r="N64" s="1">
@@ -6516,56 +7086,40 @@
       <c r="P64" s="1">
         <v>0</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="1">
         <v>841</v>
       </c>
       <c r="R64" s="1">
         <v>1</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1">
         <v>0.2</v>
       </c>
-      <c r="T64" s="1">
-        <v>2</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64">
+      <c r="AB64" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
         <v>846</v>
       </c>
-      <c r="W64" s="1">
-        <v>1</v>
-      </c>
-      <c r="X64" s="1">
+      <c r="AE64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="AG64" s="1">
         <v>10</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB64" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>1</v>
       </c>
       <c r="AH64" s="1">
         <v>0</v>
@@ -6574,10 +7128,35 @@
         <v>856</v>
       </c>
       <c r="AJ64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR64" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="65" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -6587,7 +7166,7 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>1050</v>
       </c>
       <c r="F65" s="1">
@@ -6599,7 +7178,7 @@
       <c r="H65" s="1">
         <v>3</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <v>1400</v>
       </c>
       <c r="J65" s="1">
@@ -6611,7 +7190,7 @@
       <c r="L65" s="1">
         <v>4</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="1">
         <v>200</v>
       </c>
       <c r="N65" s="1">
@@ -6623,56 +7202,40 @@
       <c r="P65" s="1">
         <v>0</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="1">
         <v>842</v>
       </c>
       <c r="R65" s="1">
         <v>1</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1">
         <v>0.2</v>
       </c>
-      <c r="T65" s="1">
-        <v>2</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0</v>
-      </c>
-      <c r="V65">
+      <c r="AB65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
         <v>847</v>
       </c>
-      <c r="W65" s="1">
-        <v>1</v>
-      </c>
-      <c r="X65" s="1">
+      <c r="AE65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="AG65" s="1">
         <v>10</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB65" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG65" s="1">
-        <v>1</v>
       </c>
       <c r="AH65" s="1">
         <v>0</v>
@@ -6681,10 +7244,35 @@
         <v>856</v>
       </c>
       <c r="AJ65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR65" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="66" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>1</v>
       </c>
@@ -6694,7 +7282,7 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>1050</v>
       </c>
       <c r="F66" s="1">
@@ -6706,7 +7294,7 @@
       <c r="H66" s="1">
         <v>3</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <v>1400</v>
       </c>
       <c r="J66" s="1">
@@ -6718,7 +7306,7 @@
       <c r="L66" s="1">
         <v>4</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="1">
         <v>200</v>
       </c>
       <c r="N66" s="1">
@@ -6730,56 +7318,40 @@
       <c r="P66" s="1">
         <v>0</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="1">
         <v>843</v>
       </c>
       <c r="R66" s="1">
         <v>1</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1">
         <v>0.2</v>
       </c>
-      <c r="T66" s="1">
-        <v>2</v>
-      </c>
-      <c r="U66" s="1">
-        <v>0</v>
-      </c>
-      <c r="V66">
+      <c r="AB66" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
         <v>848</v>
       </c>
-      <c r="W66" s="1">
-        <v>1</v>
-      </c>
-      <c r="X66" s="1">
+      <c r="AE66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="AG66" s="1">
         <v>10</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>856</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>856</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>1</v>
       </c>
       <c r="AH66" s="1">
         <v>0</v>
@@ -6788,10 +7360,35 @@
         <v>856</v>
       </c>
       <c r="AJ66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>856</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>856</v>
+      </c>
+      <c r="AR66" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="67" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>1</v>
       </c>
@@ -6801,7 +7398,7 @@
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>1400</v>
       </c>
       <c r="F67" s="1">
@@ -6813,7 +7410,7 @@
       <c r="H67" s="1">
         <v>3</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <v>1400</v>
       </c>
       <c r="J67" s="1">
@@ -6825,7 +7422,7 @@
       <c r="L67" s="1">
         <v>4</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="1">
         <v>250</v>
       </c>
       <c r="N67" s="1">
@@ -6843,50 +7440,34 @@
       <c r="R67" s="1">
         <v>1</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1">
         <v>0.2</v>
       </c>
-      <c r="T67" s="1">
-        <v>2</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="V67">
+      <c r="AB67" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
         <v>849</v>
       </c>
-      <c r="W67" s="1">
-        <v>1</v>
-      </c>
-      <c r="X67" s="1">
+      <c r="AE67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="AG67" s="1">
         <v>10</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>1</v>
       </c>
       <c r="AH67" s="1">
         <v>0</v>
@@ -6895,10 +7476,35 @@
         <v>857</v>
       </c>
       <c r="AJ67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR67" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="68" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>1</v>
       </c>
@@ -6908,7 +7514,7 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>1400</v>
       </c>
       <c r="F68" s="1">
@@ -6920,7 +7526,7 @@
       <c r="H68" s="1">
         <v>3</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="1">
         <v>1400</v>
       </c>
       <c r="J68" s="1">
@@ -6932,7 +7538,7 @@
       <c r="L68" s="1">
         <v>4</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="1">
         <v>250</v>
       </c>
       <c r="N68" s="1">
@@ -6950,50 +7556,34 @@
       <c r="R68" s="1">
         <v>1</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1">
         <v>0.2</v>
       </c>
-      <c r="T68" s="1">
-        <v>2</v>
-      </c>
-      <c r="U68" s="1">
-        <v>0</v>
-      </c>
-      <c r="V68">
+      <c r="AB68" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
         <v>849</v>
       </c>
-      <c r="W68" s="1">
-        <v>1</v>
-      </c>
-      <c r="X68" s="1">
+      <c r="AE68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="AG68" s="1">
         <v>10</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>1</v>
       </c>
       <c r="AH68" s="1">
         <v>0</v>
@@ -7002,10 +7592,35 @@
         <v>857</v>
       </c>
       <c r="AJ68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR68" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="69" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>1</v>
       </c>
@@ -7015,7 +7630,7 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>1400</v>
       </c>
       <c r="F69" s="1">
@@ -7027,7 +7642,7 @@
       <c r="H69" s="1">
         <v>3</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <v>1400</v>
       </c>
       <c r="J69" s="1">
@@ -7039,7 +7654,7 @@
       <c r="L69" s="1">
         <v>4</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="1">
         <v>250</v>
       </c>
       <c r="N69" s="1">
@@ -7057,50 +7672,34 @@
       <c r="R69" s="1">
         <v>1</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1">
         <v>0.2</v>
       </c>
-      <c r="T69" s="1">
-        <v>2</v>
-      </c>
-      <c r="U69" s="1">
-        <v>0</v>
-      </c>
-      <c r="V69">
+      <c r="AB69" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
         <v>850</v>
       </c>
-      <c r="W69" s="1">
-        <v>1</v>
-      </c>
-      <c r="X69" s="1">
+      <c r="AE69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="AG69" s="1">
         <v>10</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG69" s="1">
-        <v>1</v>
       </c>
       <c r="AH69" s="1">
         <v>0</v>
@@ -7109,10 +7708,35 @@
         <v>857</v>
       </c>
       <c r="AJ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR69" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="70" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -7122,7 +7746,7 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>1400</v>
       </c>
       <c r="F70" s="1">
@@ -7134,7 +7758,7 @@
       <c r="H70" s="1">
         <v>3</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <v>1400</v>
       </c>
       <c r="J70" s="1">
@@ -7146,7 +7770,7 @@
       <c r="L70" s="1">
         <v>4</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="1">
         <v>250</v>
       </c>
       <c r="N70" s="1">
@@ -7164,50 +7788,34 @@
       <c r="R70" s="1">
         <v>1</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1">
         <v>0.2</v>
       </c>
-      <c r="T70" s="1">
-        <v>2</v>
-      </c>
-      <c r="U70" s="1">
-        <v>0</v>
-      </c>
-      <c r="V70">
+      <c r="AB70" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
         <v>850</v>
       </c>
-      <c r="W70" s="1">
-        <v>1</v>
-      </c>
-      <c r="X70" s="1">
+      <c r="AE70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y70" s="1">
+      <c r="AG70" s="1">
         <v>10</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG70" s="1">
-        <v>1</v>
       </c>
       <c r="AH70" s="1">
         <v>0</v>
@@ -7216,10 +7824,35 @@
         <v>857</v>
       </c>
       <c r="AJ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR70" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="71" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>1</v>
       </c>
@@ -7229,7 +7862,7 @@
       <c r="D71" s="1">
         <v>1</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>1400</v>
       </c>
       <c r="F71" s="1">
@@ -7241,7 +7874,7 @@
       <c r="H71" s="1">
         <v>3</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <v>1400</v>
       </c>
       <c r="J71" s="1">
@@ -7253,7 +7886,7 @@
       <c r="L71" s="1">
         <v>4</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="1">
         <v>250</v>
       </c>
       <c r="N71" s="1">
@@ -7271,50 +7904,34 @@
       <c r="R71" s="1">
         <v>1</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1">
         <v>0.2</v>
       </c>
-      <c r="T71" s="1">
-        <v>2</v>
-      </c>
-      <c r="U71" s="1">
-        <v>0</v>
-      </c>
-      <c r="V71">
+      <c r="AB71" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
         <v>851</v>
       </c>
-      <c r="W71" s="1">
-        <v>1</v>
-      </c>
-      <c r="X71" s="1">
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="AG71" s="1">
         <v>10</v>
-      </c>
-      <c r="Z71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>1</v>
       </c>
       <c r="AH71" s="1">
         <v>0</v>
@@ -7323,10 +7940,35 @@
         <v>857</v>
       </c>
       <c r="AJ71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR71" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="72" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>1</v>
       </c>
@@ -7336,7 +7978,7 @@
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>1400</v>
       </c>
       <c r="F72" s="1">
@@ -7348,7 +7990,7 @@
       <c r="H72" s="1">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="1">
         <v>1400</v>
       </c>
       <c r="J72" s="1">
@@ -7360,7 +8002,7 @@
       <c r="L72" s="1">
         <v>4</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="1">
         <v>250</v>
       </c>
       <c r="N72" s="1">
@@ -7378,50 +8020,34 @@
       <c r="R72" s="1">
         <v>1</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1">
         <v>0.2</v>
       </c>
-      <c r="T72" s="1">
-        <v>2</v>
-      </c>
-      <c r="U72" s="1">
-        <v>0</v>
-      </c>
-      <c r="V72">
+      <c r="AB72" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
         <v>851</v>
       </c>
-      <c r="W72" s="1">
-        <v>1</v>
-      </c>
-      <c r="X72" s="1">
+      <c r="AE72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="AG72" s="1">
         <v>10</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>1</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -7430,10 +8056,35 @@
         <v>857</v>
       </c>
       <c r="AJ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR72" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>1</v>
       </c>
@@ -7443,7 +8094,7 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>1400</v>
       </c>
       <c r="F73" s="1">
@@ -7455,7 +8106,7 @@
       <c r="H73" s="1">
         <v>3</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <v>1400</v>
       </c>
       <c r="J73" s="1">
@@ -7467,7 +8118,7 @@
       <c r="L73" s="1">
         <v>4</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="1">
         <v>250</v>
       </c>
       <c r="N73" s="1">
@@ -7485,50 +8136,34 @@
       <c r="R73" s="1">
         <v>1</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1">
         <v>0.2</v>
       </c>
-      <c r="T73" s="1">
-        <v>2</v>
-      </c>
-      <c r="U73" s="1">
-        <v>0</v>
-      </c>
-      <c r="V73">
+      <c r="AB73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
         <v>852</v>
       </c>
-      <c r="W73" s="1">
-        <v>1</v>
-      </c>
-      <c r="X73" s="1">
+      <c r="AE73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="1">
         <v>0.4</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="AG73" s="1">
         <v>10</v>
-      </c>
-      <c r="Z73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="1">
-        <v>857</v>
-      </c>
-      <c r="AB73" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>857</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>1</v>
       </c>
       <c r="AH73" s="1">
         <v>0</v>
@@ -7537,12 +8172,521 @@
         <v>857</v>
       </c>
       <c r="AJ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR73" s="1">
         <v>5</v>
       </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>100</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>150</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>300</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>400</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>600</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>800</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1050</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
 </worksheet>
 </file>
--- a/drop.xlsx
+++ b/drop.xlsx
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,10 +641,18 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -687,10 +695,18 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>300</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -733,10 +749,18 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>700</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -779,31 +803,81 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>150</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>853</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>853</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>853</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -825,31 +899,81 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>200</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>853</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>853</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>853</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -875,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -883,27 +1007,69 @@
       <c r="E8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>853</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>853</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>853</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>5</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -929,35 +1095,77 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>300</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>250</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>853</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>853</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>853</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>5</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -983,35 +1191,77 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>700</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>250</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>853</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>853</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>853</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1055,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1151,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1235,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1247,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1259,65 +1509,85 @@
         <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>802</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>807</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
         <v>0.4</v>
       </c>
-      <c r="O13" s="1">
+      <c r="AG13" s="1">
         <v>10</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
         <v>853</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>3</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
         <v>853</v>
       </c>
-      <c r="V13" s="1">
-        <v>3</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="AN13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
         <v>853</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AR13" s="1">
         <v>5</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1331,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1343,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1355,65 +1625,85 @@
         <v>4</v>
       </c>
       <c r="M14" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>803</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>807</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
         <v>0.4</v>
       </c>
-      <c r="O14" s="1">
+      <c r="AG14" s="1">
         <v>10</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
         <v>853</v>
       </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>3</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
+      <c r="AJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
         <v>853</v>
       </c>
-      <c r="V14" s="1">
-        <v>3</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="AN14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>853</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AR14" s="1">
         <v>5</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1427,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1439,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1451,65 +1741,85 @@
         <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>804</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>807</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
         <v>0.4</v>
       </c>
-      <c r="O15" s="1">
+      <c r="AG15" s="1">
         <v>10</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
         <v>853</v>
       </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>3</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
+      <c r="AJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
         <v>853</v>
       </c>
-      <c r="V15" s="1">
-        <v>3</v>
-      </c>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="AN15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>853</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AR15" s="1">
         <v>5</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1523,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1535,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1547,65 +1857,85 @@
         <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>805</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>808</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="1">
         <v>0.4</v>
       </c>
-      <c r="O16" s="1">
+      <c r="AG16" s="1">
         <v>10</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
         <v>853</v>
       </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>3</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
+      <c r="AJ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
         <v>853</v>
       </c>
-      <c r="V16" s="1">
-        <v>3</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="AN16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
         <v>853</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AR16" s="1">
         <v>5</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1619,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1631,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1643,65 +1973,85 @@
         <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>806</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>808</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1">
         <v>0.4</v>
       </c>
-      <c r="O17" s="1">
+      <c r="AG17" s="1">
         <v>10</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
         <v>853</v>
       </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>3</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
+      <c r="AJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
         <v>853</v>
       </c>
-      <c r="V17" s="1">
-        <v>3</v>
-      </c>
-      <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="AN17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
         <v>853</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AR17" s="1">
         <v>5</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1727,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1774,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AE18" s="1">
         <v>1</v>
@@ -1843,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1890,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AE19" s="1">
         <v>1</v>
@@ -1947,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1959,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1971,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N20" s="1">
         <v>0.8</v>
@@ -2006,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AE20" s="1">
         <v>1</v>
@@ -2021,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AJ20" s="1">
         <v>1</v>
@@ -2033,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN20" s="1">
         <v>3</v>
@@ -2045,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AR20" s="1">
         <v>5</v>
@@ -2063,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2075,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2087,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N21" s="1">
         <v>0.8</v>
@@ -2122,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AE21" s="1">
         <v>1</v>
@@ -2137,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AJ21" s="1">
         <v>1</v>
@@ -2149,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN21" s="1">
         <v>3</v>
@@ -2161,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AR21" s="1">
         <v>5</v>
@@ -2179,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2191,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2203,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22" s="1">
         <v>0.8</v>
@@ -2238,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AE22" s="1">
         <v>1</v>
@@ -2253,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AJ22" s="1">
         <v>1</v>
@@ -2265,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN22" s="1">
         <v>3</v>
@@ -2277,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AR22" s="1">
         <v>5</v>
@@ -2295,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2307,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2319,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N23" s="1">
         <v>0.8</v>
@@ -2354,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="AE23" s="1">
         <v>1</v>
@@ -2369,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AJ23" s="1">
         <v>1</v>
@@ -2381,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN23" s="1">
         <v>3</v>
@@ -2393,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AR23" s="1">
         <v>5</v>
@@ -2411,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2423,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2435,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N24" s="1">
         <v>0.8</v>
@@ -2470,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="AE24" s="1">
         <v>1</v>
@@ -2485,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AJ24" s="1">
         <v>1</v>
@@ -2497,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN24" s="1">
         <v>3</v>
@@ -2509,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AR24" s="1">
         <v>5</v>
@@ -2586,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AE25" s="1">
         <v>1</v>
@@ -2702,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AE26" s="1">
         <v>1</v>
@@ -2759,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2771,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2783,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N27" s="1">
         <v>0.8</v>
@@ -2795,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -2818,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="AE27" s="1">
         <v>1</v>
@@ -2875,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2887,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2899,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="M28" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N28" s="1">
         <v>0.8</v>
@@ -2911,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
@@ -2934,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="AE28" s="1">
         <v>1</v>
@@ -2991,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -3003,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -3015,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="M29" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N29" s="1">
         <v>0.8</v>
@@ -3027,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
@@ -3050,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="AE29" s="1">
         <v>1</v>
@@ -3107,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -3119,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -3131,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N30" s="1">
         <v>0.8</v>
@@ -3143,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -3166,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="AE30" s="1">
         <v>1</v>
@@ -3223,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -3235,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3247,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="M31" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N31" s="1">
         <v>0.8</v>
@@ -3259,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -3282,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="AE31" s="1">
         <v>1</v>
@@ -3398,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AE32" s="1">
         <v>1</v>
@@ -3514,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AE33" s="1">
         <v>1</v>
@@ -3571,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -3583,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -3595,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N34" s="1">
         <v>0.8</v>
@@ -3630,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AE34" s="1">
         <v>1</v>
@@ -3645,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AJ34" s="1">
         <v>1</v>
@@ -3657,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AN34" s="1">
         <v>3</v>
@@ -3669,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AR34" s="1">
         <v>5</v>
@@ -3687,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -3699,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -3711,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="M35" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N35" s="1">
         <v>0.8</v>
@@ -3746,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AE35" s="1">
         <v>1</v>
@@ -3761,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AJ35" s="1">
         <v>1</v>
@@ -3773,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AM35" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AN35" s="1">
         <v>3</v>
@@ -3785,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AR35" s="1">
         <v>5</v>
@@ -3803,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -3815,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -3827,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="M36" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N36" s="1">
         <v>0.8</v>
@@ -3862,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AE36" s="1">
         <v>1</v>
@@ -3877,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AJ36" s="1">
         <v>1</v>
@@ -3889,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AN36" s="1">
         <v>3</v>
@@ -3901,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AR36" s="1">
         <v>5</v>
@@ -3919,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -3931,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -3943,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="M37" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N37" s="1">
         <v>0.8</v>
@@ -3978,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE37" s="1">
         <v>1</v>
@@ -3993,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AJ37" s="1">
         <v>1</v>
@@ -4005,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AN37" s="1">
         <v>3</v>
@@ -4017,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AR37" s="1">
         <v>5</v>
@@ -4035,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -4047,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -4059,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="M38" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N38" s="1">
         <v>0.8</v>
@@ -4094,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AE38" s="1">
         <v>1</v>
@@ -4109,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AJ38" s="1">
         <v>1</v>
@@ -4121,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AN38" s="1">
         <v>3</v>
@@ -4133,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AR38" s="1">
         <v>5</v>
@@ -4210,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="1">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AE39" s="1">
         <v>1</v>
@@ -4326,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="1">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AE40" s="1">
         <v>1</v>
@@ -4383,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -4395,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -4407,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="M41" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N41" s="1">
         <v>0.8</v>
@@ -4419,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
@@ -4442,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="1">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="AE41" s="1">
         <v>1</v>
@@ -4499,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -4511,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -4523,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="M42" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N42" s="1">
         <v>0.8</v>
@@ -4535,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="R42" s="1">
         <v>1</v>
@@ -4558,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="AE42" s="1">
         <v>1</v>
@@ -4615,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -4627,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -4639,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="M43" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N43" s="1">
         <v>0.8</v>
@@ -4651,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="R43" s="1">
         <v>1</v>
@@ -4674,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="1">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="AE43" s="1">
         <v>1</v>
@@ -4731,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -4743,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -4755,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="M44" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N44" s="1">
         <v>0.8</v>
@@ -4767,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
@@ -4790,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="1">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="AE44" s="1">
         <v>1</v>
@@ -4847,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -4859,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -4871,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="M45" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N45" s="1">
         <v>0.8</v>
@@ -4883,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="R45" s="1">
         <v>1</v>
@@ -4906,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="AE45" s="1">
         <v>1</v>
@@ -4999,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="R46" s="1">
         <v>1</v>
@@ -5022,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AE46" s="1">
         <v>1</v>
@@ -5115,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R47" s="1">
         <v>1</v>
@@ -5138,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="AE47" s="1">
         <v>1</v>
@@ -5195,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -5207,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -5219,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="M48" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N48" s="1">
         <v>0.8</v>
@@ -5231,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R48" s="1">
         <v>1</v>
@@ -5254,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="1">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AE48" s="1">
         <v>1</v>
@@ -5269,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ48" s="1">
         <v>1</v>
@@ -5281,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AN48" s="1">
         <v>3</v>
@@ -5293,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AR48" s="1">
         <v>5</v>
@@ -5311,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -5323,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -5335,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N49" s="1">
         <v>0.8</v>
@@ -5347,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R49" s="1">
         <v>1</v>
@@ -5370,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AE49" s="1">
         <v>1</v>
@@ -5385,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ49" s="1">
         <v>1</v>
@@ -5397,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AN49" s="1">
         <v>3</v>
@@ -5409,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AR49" s="1">
         <v>5</v>
@@ -5427,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -5439,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -5451,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N50" s="1">
         <v>0.8</v>
@@ -5463,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="R50" s="1">
         <v>1</v>
@@ -5486,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="1">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="AE50" s="1">
         <v>1</v>
@@ -5501,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ50" s="1">
         <v>1</v>
@@ -5513,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AM50" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AN50" s="1">
         <v>3</v>
@@ -5525,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AR50" s="1">
         <v>5</v>
@@ -5543,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -5555,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -5567,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N51" s="1">
         <v>0.8</v>
@@ -5579,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R51" s="1">
         <v>1</v>
@@ -5602,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="1">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="AE51" s="1">
         <v>1</v>
@@ -5617,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ51" s="1">
         <v>1</v>
@@ -5629,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AN51" s="1">
         <v>3</v>
@@ -5641,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AR51" s="1">
         <v>5</v>
@@ -5659,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -5671,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -5683,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="M52" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N52" s="1">
         <v>0.8</v>
@@ -5695,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="R52" s="1">
         <v>1</v>
@@ -5718,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="1">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="AE52" s="1">
         <v>1</v>
@@ -5733,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AJ52" s="1">
         <v>1</v>
@@ -5745,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AN52" s="1">
         <v>3</v>
@@ -5757,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AR52" s="1">
         <v>5</v>
@@ -5811,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R53" s="1">
         <v>1</v>
@@ -5834,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="1">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AE53" s="1">
         <v>1</v>
@@ -5927,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R54" s="1">
         <v>1</v>
@@ -5950,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AE54" s="1">
         <v>1</v>
@@ -6007,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -6019,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -6031,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N55" s="1">
         <v>0.8</v>
@@ -6043,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
@@ -6066,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="AE55" s="1">
         <v>1</v>
@@ -6123,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -6135,7 +6485,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -6147,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="M56" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N56" s="1">
         <v>0.8</v>
@@ -6159,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="R56" s="1">
         <v>1</v>
@@ -6182,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="AE56" s="1">
         <v>1</v>
@@ -6239,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -6251,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -6263,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N57" s="1">
         <v>0.8</v>
@@ -6275,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="R57" s="1">
         <v>1</v>
@@ -6298,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="1">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="AE57" s="1">
         <v>1</v>
@@ -6355,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -6367,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -6379,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="M58" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N58" s="1">
         <v>0.8</v>
@@ -6391,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="R58" s="1">
         <v>1</v>
@@ -6414,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="1">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="AE58" s="1">
         <v>1</v>
@@ -6471,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -6483,7 +6833,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -6495,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N59" s="1">
         <v>0.8</v>
@@ -6507,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="R59" s="1">
         <v>1</v>
@@ -6530,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="1">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="AE59" s="1">
         <v>1</v>
@@ -6623,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="R60" s="1">
         <v>1</v>
@@ -6646,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="AE60" s="1">
         <v>1</v>
@@ -6739,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="R61" s="1">
         <v>1</v>
@@ -6762,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="1">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="AE61" s="1">
         <v>1</v>
@@ -6819,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -6843,7 +7193,7 @@
         <v>4</v>
       </c>
       <c r="M62" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N62" s="1">
         <v>0.8</v>
@@ -6855,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="R62" s="1">
         <v>1</v>
@@ -6878,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="AE62" s="1">
         <v>1</v>
@@ -6893,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AJ62" s="1">
         <v>1</v>
@@ -6905,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN62" s="1">
         <v>3</v>
@@ -6917,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AR62" s="1">
         <v>5</v>
@@ -6935,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -6959,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="M63" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N63" s="1">
         <v>0.8</v>
@@ -6971,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R63" s="1">
         <v>1</v>
@@ -6994,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="1">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="AE63" s="1">
         <v>1</v>
@@ -7009,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AJ63" s="1">
         <v>1</v>
@@ -7021,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN63" s="1">
         <v>3</v>
@@ -7033,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AR63" s="1">
         <v>5</v>
@@ -7051,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -7075,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="M64" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N64" s="1">
         <v>0.8</v>
@@ -7087,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="R64" s="1">
         <v>1</v>
@@ -7110,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="1">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="AE64" s="1">
         <v>1</v>
@@ -7125,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AJ64" s="1">
         <v>1</v>
@@ -7137,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN64" s="1">
         <v>3</v>
@@ -7149,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AR64" s="1">
         <v>5</v>
@@ -7167,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -7191,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="M65" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N65" s="1">
         <v>0.8</v>
@@ -7203,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="R65" s="1">
         <v>1</v>
@@ -7226,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="1">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AE65" s="1">
         <v>1</v>
@@ -7241,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AJ65" s="1">
         <v>1</v>
@@ -7253,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN65" s="1">
         <v>3</v>
@@ -7265,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AR65" s="1">
         <v>5</v>
@@ -7283,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -7307,7 +7657,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N66" s="1">
         <v>0.8</v>
@@ -7319,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="R66" s="1">
         <v>1</v>
@@ -7342,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="1">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="AE66" s="1">
         <v>1</v>
@@ -7357,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AJ66" s="1">
         <v>1</v>
@@ -7369,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AN66" s="1">
         <v>3</v>
@@ -7381,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AR66" s="1">
         <v>5</v>
@@ -7435,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="R67" s="1">
         <v>1</v>
@@ -7458,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="1">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AE67" s="1">
         <v>1</v>
@@ -7551,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="R68" s="1">
         <v>1</v>
@@ -7574,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="AD68" s="1">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AE68" s="1">
         <v>1</v>
@@ -7631,47 +7981,21 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>2</v>
-      </c>
-      <c r="H69" s="1">
-        <v>3</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1">
-        <v>2</v>
-      </c>
-      <c r="L69" s="1">
-        <v>4</v>
-      </c>
-      <c r="M69" s="1">
-        <v>250</v>
-      </c>
-      <c r="N69" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O69" s="1">
-        <v>2</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>839</v>
-      </c>
-      <c r="R69" s="1">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -7680,60 +8004,24 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>850</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG69" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="1">
-        <v>857</v>
-      </c>
-      <c r="AJ69" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM69" s="1">
-        <v>857</v>
-      </c>
-      <c r="AN69" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO69" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="1">
-        <v>857</v>
-      </c>
-      <c r="AR69" s="1">
-        <v>5</v>
-      </c>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -7747,47 +8035,21 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1">
-        <v>2</v>
-      </c>
-      <c r="H70" s="1">
-        <v>3</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1">
-        <v>2</v>
-      </c>
-      <c r="L70" s="1">
-        <v>4</v>
-      </c>
-      <c r="M70" s="1">
-        <v>250</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O70" s="1">
-        <v>2</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>840</v>
-      </c>
-      <c r="R70" s="1">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -7796,60 +8058,24 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>850</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG70" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="1">
-        <v>857</v>
-      </c>
-      <c r="AJ70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM70" s="1">
-        <v>857</v>
-      </c>
-      <c r="AN70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="1">
-        <v>857</v>
-      </c>
-      <c r="AR70" s="1">
-        <v>5</v>
-      </c>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -7863,47 +8089,21 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1">
-        <v>2</v>
-      </c>
-      <c r="L71" s="1">
-        <v>4</v>
-      </c>
-      <c r="M71" s="1">
-        <v>250</v>
-      </c>
-      <c r="N71" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>841</v>
-      </c>
-      <c r="R71" s="1">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -7912,60 +8112,24 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB71" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>851</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="1">
-        <v>857</v>
-      </c>
-      <c r="AJ71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM71" s="1">
-        <v>857</v>
-      </c>
-      <c r="AN71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ71" s="1">
-        <v>857</v>
-      </c>
-      <c r="AR71" s="1">
-        <v>5</v>
-      </c>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -7979,47 +8143,21 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-      <c r="H72" s="1">
-        <v>3</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1">
-        <v>2</v>
-      </c>
-      <c r="L72" s="1">
-        <v>4</v>
-      </c>
-      <c r="M72" s="1">
-        <v>250</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O72" s="1">
-        <v>2</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>842</v>
-      </c>
-      <c r="R72" s="1">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -8028,60 +8166,24 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>851</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="1">
-        <v>857</v>
-      </c>
-      <c r="AJ72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM72" s="1">
-        <v>857</v>
-      </c>
-      <c r="AN72" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="1">
-        <v>857</v>
-      </c>
-      <c r="AR72" s="1">
-        <v>5</v>
-      </c>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -8095,47 +8197,21 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <v>2</v>
-      </c>
-      <c r="H73" s="1">
-        <v>3</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J73" s="1">
-        <v>1</v>
-      </c>
-      <c r="K73" s="1">
-        <v>2</v>
-      </c>
-      <c r="L73" s="1">
-        <v>4</v>
-      </c>
-      <c r="M73" s="1">
-        <v>250</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O73" s="1">
-        <v>2</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>843</v>
-      </c>
-      <c r="R73" s="1">
-        <v>1</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -8144,60 +8220,24 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB73" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>852</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="1">
-        <v>857</v>
-      </c>
-      <c r="AJ73" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM73" s="1">
-        <v>857</v>
-      </c>
-      <c r="AN73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO73" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="1">
-        <v>857</v>
-      </c>
-      <c r="AR73" s="1">
-        <v>5</v>
-      </c>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -8211,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -8265,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8319,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -8373,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -8415,276 +8455,6 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
     </row>
-    <row r="78" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>400</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-    </row>
-    <row r="79" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1">
-        <v>600</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-    </row>
-    <row r="80" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1">
-        <v>800</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-    </row>
-    <row r="81" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1050</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-    </row>
-    <row r="82" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100"/>

--- a/drop.xlsx
+++ b/drop.xlsx
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,18 +641,10 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -695,18 +687,10 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>300</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -749,18 +733,10 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>700</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -803,81 +779,31 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>150</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>853</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>853</v>
-      </c>
-      <c r="V6" s="1">
-        <v>3</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>853</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>5</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -899,81 +825,31 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>200</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
-      <c r="M7" s="1">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>853</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>853</v>
-      </c>
-      <c r="V7" s="1">
-        <v>3</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>853</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>5</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -999,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1007,69 +883,27 @@
       <c r="E8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>200</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>853</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>3</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>853</v>
-      </c>
-      <c r="V8" s="1">
-        <v>3</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>853</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>5</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1095,77 +929,35 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>250</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>853</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>3</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>853</v>
-      </c>
-      <c r="V9" s="1">
-        <v>3</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>853</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>5</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1191,77 +983,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>250</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-      <c r="M10" s="1">
-        <v>20</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>853</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>853</v>
-      </c>
-      <c r="V10" s="1">
-        <v>3</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>853</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>5</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1305,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1401,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1485,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1497,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1509,85 +1259,65 @@
         <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>802</v>
+        <v>853</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>807</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>853</v>
       </c>
-      <c r="AJ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
         <v>853</v>
       </c>
-      <c r="AN13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>853</v>
-      </c>
-      <c r="AR13" s="1">
+      <c r="Z13" s="1">
         <v>5</v>
       </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1601,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1613,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1625,85 +1355,65 @@
         <v>4</v>
       </c>
       <c r="M14" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>803</v>
+        <v>853</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>807</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>853</v>
       </c>
-      <c r="AJ14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>853</v>
       </c>
-      <c r="AN14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>853</v>
-      </c>
-      <c r="AR14" s="1">
+      <c r="Z14" s="1">
         <v>5</v>
       </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1717,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1729,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1741,85 +1451,65 @@
         <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O15" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>807</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>853</v>
       </c>
-      <c r="AJ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>853</v>
       </c>
-      <c r="AN15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>853</v>
-      </c>
-      <c r="AR15" s="1">
+      <c r="Z15" s="1">
         <v>5</v>
       </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1833,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1845,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1857,85 +1547,65 @@
         <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N16" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>805</v>
+        <v>853</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>808</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
         <v>853</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
+      <c r="V16" s="1">
+        <v>3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>853</v>
       </c>
-      <c r="AN16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>853</v>
-      </c>
-      <c r="AR16" s="1">
+      <c r="Z16" s="1">
         <v>5</v>
       </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1949,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1961,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1973,85 +1643,65 @@
         <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N17" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>808</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>853</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="1">
+      <c r="V17" s="1">
+        <v>3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <v>853</v>
       </c>
-      <c r="AN17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>853</v>
-      </c>
-      <c r="AR17" s="1">
+      <c r="Z17" s="1">
         <v>5</v>
       </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -2077,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2124,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AE18" s="1">
         <v>1</v>
@@ -2193,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2240,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AE19" s="1">
         <v>1</v>
@@ -2297,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2309,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2321,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1">
         <v>0.8</v>
@@ -2356,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AE20" s="1">
         <v>1</v>
@@ -2371,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ20" s="1">
         <v>1</v>
@@ -2383,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AN20" s="1">
         <v>3</v>
@@ -2395,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AR20" s="1">
         <v>5</v>
@@ -2413,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2425,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2437,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21" s="1">
         <v>0.8</v>
@@ -2472,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AE21" s="1">
         <v>1</v>
@@ -2487,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ21" s="1">
         <v>1</v>
@@ -2499,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AN21" s="1">
         <v>3</v>
@@ -2511,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AR21" s="1">
         <v>5</v>
@@ -2529,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2541,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2553,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N22" s="1">
         <v>0.8</v>
@@ -2588,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AE22" s="1">
         <v>1</v>
@@ -2603,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ22" s="1">
         <v>1</v>
@@ -2615,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AN22" s="1">
         <v>3</v>
@@ -2627,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AR22" s="1">
         <v>5</v>
@@ -2645,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2657,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2669,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1">
         <v>0.8</v>
@@ -2704,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AE23" s="1">
         <v>1</v>
@@ -2719,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ23" s="1">
         <v>1</v>
@@ -2731,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AN23" s="1">
         <v>3</v>
@@ -2743,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AR23" s="1">
         <v>5</v>
@@ -2761,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2773,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2785,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N24" s="1">
         <v>0.8</v>
@@ -2820,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AE24" s="1">
         <v>1</v>
@@ -2835,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ24" s="1">
         <v>1</v>
@@ -2847,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AN24" s="1">
         <v>3</v>
@@ -2859,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AR24" s="1">
         <v>5</v>
@@ -2936,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AE25" s="1">
         <v>1</v>
@@ -3052,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AE26" s="1">
         <v>1</v>
@@ -3109,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -3121,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -3133,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N27" s="1">
         <v>0.8</v>
@@ -3145,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -3168,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AE27" s="1">
         <v>1</v>
@@ -3225,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -3237,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -3249,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="M28" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N28" s="1">
         <v>0.8</v>
@@ -3261,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
@@ -3284,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AE28" s="1">
         <v>1</v>
@@ -3341,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -3353,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -3365,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="M29" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N29" s="1">
         <v>0.8</v>
@@ -3377,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
@@ -3400,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AE29" s="1">
         <v>1</v>
@@ -3457,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -3469,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -3481,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N30" s="1">
         <v>0.8</v>
@@ -3493,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -3516,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AE30" s="1">
         <v>1</v>
@@ -3573,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -3585,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3597,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="M31" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N31" s="1">
         <v>0.8</v>
@@ -3609,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -3632,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AE31" s="1">
         <v>1</v>
@@ -3748,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AE32" s="1">
         <v>1</v>
@@ -3864,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AE33" s="1">
         <v>1</v>
@@ -3921,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -3933,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -3945,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N34" s="1">
         <v>0.8</v>
@@ -3980,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AE34" s="1">
         <v>1</v>
@@ -3995,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ34" s="1">
         <v>1</v>
@@ -4007,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AN34" s="1">
         <v>3</v>
@@ -4019,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AR34" s="1">
         <v>5</v>
@@ -4037,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -4049,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -4061,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="M35" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N35" s="1">
         <v>0.8</v>
@@ -4096,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AE35" s="1">
         <v>1</v>
@@ -4111,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ35" s="1">
         <v>1</v>
@@ -4123,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AM35" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AN35" s="1">
         <v>3</v>
@@ -4135,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AR35" s="1">
         <v>5</v>
@@ -4153,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -4165,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -4177,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="M36" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N36" s="1">
         <v>0.8</v>
@@ -4212,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AE36" s="1">
         <v>1</v>
@@ -4227,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ36" s="1">
         <v>1</v>
@@ -4239,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AN36" s="1">
         <v>3</v>
@@ -4251,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AR36" s="1">
         <v>5</v>
@@ -4269,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -4281,7 +3931,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -4293,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="M37" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N37" s="1">
         <v>0.8</v>
@@ -4328,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AE37" s="1">
         <v>1</v>
@@ -4343,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ37" s="1">
         <v>1</v>
@@ -4355,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AN37" s="1">
         <v>3</v>
@@ -4367,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AR37" s="1">
         <v>5</v>
@@ -4385,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -4397,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -4409,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="M38" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N38" s="1">
         <v>0.8</v>
@@ -4444,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AE38" s="1">
         <v>1</v>
@@ -4459,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ38" s="1">
         <v>1</v>
@@ -4471,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AN38" s="1">
         <v>3</v>
@@ -4483,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AR38" s="1">
         <v>5</v>
@@ -4560,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="1">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AE39" s="1">
         <v>1</v>
@@ -4676,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="1">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AE40" s="1">
         <v>1</v>
@@ -4733,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -4745,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -4757,7 +4407,7 @@
         <v>4</v>
       </c>
       <c r="M41" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N41" s="1">
         <v>0.8</v>
@@ -4769,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="R41" s="1">
         <v>1</v>
@@ -4792,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="1">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="AE41" s="1">
         <v>1</v>
@@ -4849,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -4861,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -4873,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="M42" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N42" s="1">
         <v>0.8</v>
@@ -4885,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="R42" s="1">
         <v>1</v>
@@ -4908,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="AE42" s="1">
         <v>1</v>
@@ -4965,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -4977,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -4989,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="M43" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N43" s="1">
         <v>0.8</v>
@@ -5001,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="R43" s="1">
         <v>1</v>
@@ -5024,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="1">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="AE43" s="1">
         <v>1</v>
@@ -5081,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -5093,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -5105,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="M44" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N44" s="1">
         <v>0.8</v>
@@ -5117,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
@@ -5140,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="1">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="AE44" s="1">
         <v>1</v>
@@ -5197,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -5209,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -5221,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="M45" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N45" s="1">
         <v>0.8</v>
@@ -5233,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="R45" s="1">
         <v>1</v>
@@ -5256,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="AE45" s="1">
         <v>1</v>
@@ -5349,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="R46" s="1">
         <v>1</v>
@@ -5372,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AE46" s="1">
         <v>1</v>
@@ -5465,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="R47" s="1">
         <v>1</v>
@@ -5488,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AE47" s="1">
         <v>1</v>
@@ -5545,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -5557,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -5569,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="M48" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N48" s="1">
         <v>0.8</v>
@@ -5581,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="R48" s="1">
         <v>1</v>
@@ -5604,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="1">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AE48" s="1">
         <v>1</v>
@@ -5619,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ48" s="1">
         <v>1</v>
@@ -5631,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AN48" s="1">
         <v>3</v>
@@ -5643,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AR48" s="1">
         <v>5</v>
@@ -5661,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -5673,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -5685,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N49" s="1">
         <v>0.8</v>
@@ -5697,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="R49" s="1">
         <v>1</v>
@@ -5720,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AE49" s="1">
         <v>1</v>
@@ -5735,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ49" s="1">
         <v>1</v>
@@ -5747,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AN49" s="1">
         <v>3</v>
@@ -5759,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AR49" s="1">
         <v>5</v>
@@ -5777,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -5789,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -5801,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N50" s="1">
         <v>0.8</v>
@@ -5813,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="R50" s="1">
         <v>1</v>
@@ -5836,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="1">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AE50" s="1">
         <v>1</v>
@@ -5851,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ50" s="1">
         <v>1</v>
@@ -5863,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="AM50" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AN50" s="1">
         <v>3</v>
@@ -5875,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AR50" s="1">
         <v>5</v>
@@ -5893,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -5905,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -5917,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N51" s="1">
         <v>0.8</v>
@@ -5929,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="R51" s="1">
         <v>1</v>
@@ -5952,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="1">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AE51" s="1">
         <v>1</v>
@@ -5967,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ51" s="1">
         <v>1</v>
@@ -5979,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AN51" s="1">
         <v>3</v>
@@ -5991,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AR51" s="1">
         <v>5</v>
@@ -6009,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -6021,7 +5671,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -6033,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="M52" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N52" s="1">
         <v>0.8</v>
@@ -6045,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="R52" s="1">
         <v>1</v>
@@ -6068,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="1">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AE52" s="1">
         <v>1</v>
@@ -6083,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ52" s="1">
         <v>1</v>
@@ -6095,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AN52" s="1">
         <v>3</v>
@@ -6107,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AR52" s="1">
         <v>5</v>
@@ -6161,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="R53" s="1">
         <v>1</v>
@@ -6184,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="1">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AE53" s="1">
         <v>1</v>
@@ -6277,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="R54" s="1">
         <v>1</v>
@@ -6300,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AE54" s="1">
         <v>1</v>
@@ -6357,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -6369,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -6381,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N55" s="1">
         <v>0.8</v>
@@ -6393,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
@@ -6416,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="AE55" s="1">
         <v>1</v>
@@ -6473,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -6485,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -6497,7 +6147,7 @@
         <v>4</v>
       </c>
       <c r="M56" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N56" s="1">
         <v>0.8</v>
@@ -6509,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="R56" s="1">
         <v>1</v>
@@ -6532,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="AE56" s="1">
         <v>1</v>
@@ -6589,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -6601,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -6613,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N57" s="1">
         <v>0.8</v>
@@ -6625,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="R57" s="1">
         <v>1</v>
@@ -6648,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="1">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="AE57" s="1">
         <v>1</v>
@@ -6705,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -6717,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -6729,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="M58" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N58" s="1">
         <v>0.8</v>
@@ -6741,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="R58" s="1">
         <v>1</v>
@@ -6764,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="1">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="AE58" s="1">
         <v>1</v>
@@ -6821,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -6833,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -6845,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N59" s="1">
         <v>0.8</v>
@@ -6857,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="R59" s="1">
         <v>1</v>
@@ -6880,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="1">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="AE59" s="1">
         <v>1</v>
@@ -6973,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R60" s="1">
         <v>1</v>
@@ -6996,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AE60" s="1">
         <v>1</v>
@@ -7089,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="R61" s="1">
         <v>1</v>
@@ -7112,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="1">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AE61" s="1">
         <v>1</v>
@@ -7169,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -7193,7 +6843,7 @@
         <v>4</v>
       </c>
       <c r="M62" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N62" s="1">
         <v>0.8</v>
@@ -7205,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="R62" s="1">
         <v>1</v>
@@ -7228,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AE62" s="1">
         <v>1</v>
@@ -7243,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AJ62" s="1">
         <v>1</v>
@@ -7255,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN62" s="1">
         <v>3</v>
@@ -7267,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AR62" s="1">
         <v>5</v>
@@ -7285,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -7309,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="M63" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N63" s="1">
         <v>0.8</v>
@@ -7321,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="R63" s="1">
         <v>1</v>
@@ -7344,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="1">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AE63" s="1">
         <v>1</v>
@@ -7359,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AJ63" s="1">
         <v>1</v>
@@ -7371,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN63" s="1">
         <v>3</v>
@@ -7383,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AR63" s="1">
         <v>5</v>
@@ -7401,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -7425,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="M64" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N64" s="1">
         <v>0.8</v>
@@ -7437,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="R64" s="1">
         <v>1</v>
@@ -7460,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="1">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AE64" s="1">
         <v>1</v>
@@ -7475,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AJ64" s="1">
         <v>1</v>
@@ -7487,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN64" s="1">
         <v>3</v>
@@ -7499,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AR64" s="1">
         <v>5</v>
@@ -7517,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -7541,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="M65" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N65" s="1">
         <v>0.8</v>
@@ -7553,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="R65" s="1">
         <v>1</v>
@@ -7576,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="1">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AE65" s="1">
         <v>1</v>
@@ -7591,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AJ65" s="1">
         <v>1</v>
@@ -7603,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN65" s="1">
         <v>3</v>
@@ -7615,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AR65" s="1">
         <v>5</v>
@@ -7633,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -7657,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N66" s="1">
         <v>0.8</v>
@@ -7669,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="R66" s="1">
         <v>1</v>
@@ -7692,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="1">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AE66" s="1">
         <v>1</v>
@@ -7707,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AJ66" s="1">
         <v>1</v>
@@ -7719,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN66" s="1">
         <v>3</v>
@@ -7731,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AR66" s="1">
         <v>5</v>
@@ -7785,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R67" s="1">
         <v>1</v>
@@ -7808,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="1">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AE67" s="1">
         <v>1</v>
@@ -7901,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="R68" s="1">
         <v>1</v>
@@ -7924,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="AD68" s="1">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AE68" s="1">
         <v>1</v>
@@ -7981,21 +7631,47 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>100</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1">
+        <v>250</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O69" s="1">
+        <v>2</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>839</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1</v>
+      </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -8004,24 +7680,60 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
+      <c r="AA69" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>850</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>857</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -8035,21 +7747,47 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>150</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1">
+        <v>250</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>840</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -8058,24 +7796,60 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-      <c r="AR70" s="1"/>
+      <c r="AA70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>850</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>857</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -8089,21 +7863,47 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>200</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>4</v>
+      </c>
+      <c r="M71" s="1">
+        <v>250</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>841</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -8112,24 +7912,60 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
+      <c r="AA71" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>851</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>857</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -8143,21 +7979,47 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>300</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4</v>
+      </c>
+      <c r="M72" s="1">
+        <v>250</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>842</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1</v>
+      </c>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -8166,24 +8028,60 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-      <c r="AR72" s="1"/>
+      <c r="AA72" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>851</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>857</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -8197,21 +8095,47 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>400</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
+        <v>250</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>843</v>
+      </c>
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -8220,24 +8144,60 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
+      <c r="AA73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>852</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>857</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>857</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -8251,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -8305,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8359,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -8413,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -8455,6 +8415,276 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
     </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>400</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>600</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>800</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1050</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100"/>
